--- a/player_d_dash/defense-dash-2pt_SeasonType_Regular_20Season_Season_2018-19.xlsx
+++ b/player_d_dash/defense-dash-2pt_SeasonType_Regular_20Season_Season_2018-19.xlsx
@@ -1104,17 +1104,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Jusuf Nurkic</t>
+          <t>Deandre Ayton</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1124,22 +1124,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>71</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>81.1%</t>
+          <t>74.4%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>7.2</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>45.9</t>
+          <t>53.2</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>-7.7</t>
+          <t>-0.3</t>
         </is>
       </c>
     </row>
@@ -1169,17 +1169,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Deandre Ayton</t>
+          <t>Jusuf Nurkic</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1189,22 +1189,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>72</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>74.4%</t>
+          <t>81.1%</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>6.2</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>53.2</t>
+          <t>45.9</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>-7.7</t>
         </is>
       </c>
     </row>
@@ -5069,37 +5069,37 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>P.J. Tucker</t>
+          <t>Mason Plumlee</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>81</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>64.2%</t>
+          <t>70.9%</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -5114,17 +5114,17 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>53.6</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>-0.5</t>
+          <t>-1.1</t>
         </is>
       </c>
     </row>
@@ -5134,27 +5134,27 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Mason Plumlee</t>
+          <t>P.J. Tucker</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>81</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>70.9%</t>
+          <t>64.2%</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -5179,17 +5179,17 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>53.6</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>-1.1</t>
+          <t>-0.5</t>
         </is>
       </c>
     </row>
@@ -5459,42 +5459,42 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Aaron Gordon</t>
+          <t>Dennis Smith Jr.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>66.3%</t>
+          <t>61.2%</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -5504,17 +5504,17 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>-1.8</t>
+          <t>-0.1</t>
         </is>
       </c>
     </row>
@@ -5524,42 +5524,42 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Dennis Smith Jr.</t>
+          <t>Aaron Gordon</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>76</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>61.2%</t>
+          <t>66.3%</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -5569,17 +5569,17 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>-1.8</t>
         </is>
       </c>
     </row>
@@ -5784,17 +5784,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Mitchell Robinson</t>
+          <t>Jahlil Okafor</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -5804,22 +5804,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>66.9%</t>
+          <t>80.7%</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5829,17 +5829,17 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>46.8</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>53.1</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>-2.7</t>
         </is>
       </c>
     </row>
@@ -5849,17 +5849,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Jahlil Okafor</t>
+          <t>Mitchell Robinson</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -5869,22 +5869,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>65</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>80.7%</t>
+          <t>66.9%</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5894,17 +5894,17 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>46.8</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>53.1</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>-6.0</t>
         </is>
       </c>
     </row>
@@ -6044,37 +6044,37 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Richaun Holmes</t>
+          <t>Kyle Kuzma</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>78.0%</t>
+          <t>68.0%</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6089,17 +6089,17 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>-4.4</t>
+          <t>-3.4</t>
         </is>
       </c>
     </row>
@@ -6109,37 +6109,37 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Kyle Kuzma</t>
+          <t>Richaun Holmes</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>69</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>68</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>68.0%</t>
+          <t>78.0%</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6154,17 +6154,17 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>48.5</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>51.9</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>-3.4</t>
+          <t>-4.4</t>
         </is>
       </c>
     </row>
@@ -6694,42 +6694,42 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Dwight Powell</t>
+          <t>Carmelo Anthony</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>69.3%</t>
+          <t>63.0%</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -6739,17 +6739,17 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>56.0</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>51.7</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>4.3</t>
         </is>
       </c>
     </row>
@@ -6824,42 +6824,42 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Carmelo Anthony</t>
+          <t>Dwight Powell</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>76</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>63.0%</t>
+          <t>69.3%</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6869,17 +6869,17 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>51.7</t>
+          <t>52.5</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -7604,42 +7604,42 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Damian Lillard</t>
+          <t>Nemanja Bjelica</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>77</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>77</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>64.3%</t>
+          <t>62.9%</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -7649,17 +7649,17 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>-0.6</t>
+          <t>-1.2</t>
         </is>
       </c>
     </row>
@@ -7669,42 +7669,42 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Nemanja Bjelica</t>
+          <t>Damian Lillard</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>80</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>62.9%</t>
+          <t>64.3%</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -7714,17 +7714,17 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>-1.2</t>
+          <t>-0.6</t>
         </is>
       </c>
     </row>
@@ -7864,17 +7864,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Fred VanVleet</t>
+          <t>Chris Paul</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -7884,17 +7884,17 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>57</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>68.8%</t>
+          <t>65.3%</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -7909,17 +7909,17 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>55.5</t>
+          <t>55.9</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
@@ -7994,42 +7994,42 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Chris Paul</t>
+          <t>Al-Farouq Aminu</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>81</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>81</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>65.3%</t>
+          <t>64.8%</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>3.6</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -8039,17 +8039,17 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>55.9</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>-1.7</t>
         </is>
       </c>
     </row>
@@ -8059,42 +8059,42 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Al-Farouq Aminu</t>
+          <t>Fred VanVleet</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>64</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>64</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>64.8%</t>
+          <t>68.8%</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -8104,17 +8104,17 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>55.5</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>-1.7</t>
+          <t>5.5</t>
         </is>
       </c>
     </row>
@@ -8449,42 +8449,42 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>RJ Hunter</t>
+          <t>Zach Collins</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>77</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>77</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>58.3%</t>
+          <t>74.0%</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -8494,17 +8494,17 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>-12.1</t>
+          <t>-3.3</t>
         </is>
       </c>
     </row>
@@ -8514,22 +8514,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Angel Delgado</t>
+          <t>RJ Hunter</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -8544,12 +8544,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>58.3%</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8559,17 +8559,17 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>28.6</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>-24.2</t>
+          <t>-12.1</t>
         </is>
       </c>
     </row>
@@ -8579,42 +8579,42 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Zach Collins</t>
+          <t>Angel Delgado</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>74.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -8624,17 +8624,17 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>28.6</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>-3.3</t>
+          <t>-24.2</t>
         </is>
       </c>
     </row>
@@ -10269,42 +10269,42 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Victor Oladipo</t>
+          <t>Nicolas Batum</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>74</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>53.8%</t>
+          <t>64.2%</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -10314,17 +10314,17 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>55.9</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>51.7</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>5.4</t>
+          <t>-0.2</t>
         </is>
       </c>
     </row>
@@ -10334,42 +10334,42 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Nicolas Batum</t>
+          <t>Victor Oladipo</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>36</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>64.2%</t>
+          <t>53.8%</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.7</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -10379,17 +10379,17 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>55.9</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>51.7</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>5.4</t>
         </is>
       </c>
     </row>
@@ -10464,42 +10464,42 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Rondae Hollis-Jefferson</t>
+          <t>Frank Kaminsky</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>45</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>43</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>71.2%</t>
+          <t>72.9%</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -10509,17 +10509,17 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>53.6</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>-0.4</t>
         </is>
       </c>
     </row>
@@ -10529,42 +10529,42 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Frank Kaminsky</t>
+          <t>Rondae Hollis-Jefferson</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>59</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>59</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>72.9%</t>
+          <t>71.2%</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.5</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10574,17 +10574,17 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>53.6</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>-0.4</t>
+          <t>1.1</t>
         </is>
       </c>
     </row>
@@ -11764,17 +11764,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Kelly Olynyk</t>
+          <t>Bojan Bogdanovic</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -11784,17 +11784,17 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>81</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>81</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>62.2%</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -11809,17 +11809,17 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -11829,17 +11829,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Bojan Bogdanovic</t>
+          <t>Kelly Olynyk</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -11849,17 +11849,17 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>79</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>77</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>62.2%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -11874,17 +11874,17 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>51.3</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>-0.7</t>
         </is>
       </c>
     </row>
@@ -12089,7 +12089,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Harrison Barnes</t>
+          <t>Marvin Bagley III</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -12099,7 +12099,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -12109,17 +12109,17 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>62</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>60.5%</t>
+          <t>59.2%</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -12134,7 +12134,7 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>54.7</t>
+          <t>55.8</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -12144,7 +12144,7 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>2.2</t>
         </is>
       </c>
     </row>
@@ -12154,7 +12154,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Marvin Bagley III</t>
+          <t>Harrison Barnes</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -12164,7 +12164,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -12174,17 +12174,17 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>77</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>77</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>59.2%</t>
+          <t>60.5%</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -12199,7 +12199,7 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>55.8</t>
+          <t>54.7</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
@@ -12209,7 +12209,7 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
@@ -12414,42 +12414,42 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>JaKarr Sampson</t>
+          <t>Wesley Matthews</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>69</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>69</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>46.3%</t>
+          <t>62.7%</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -12459,17 +12459,17 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>51.7</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>51.7</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>0.1</t>
         </is>
       </c>
     </row>
@@ -12479,42 +12479,42 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Wesley Matthews</t>
+          <t>JaKarr Sampson</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>62.7%</t>
+          <t>46.3%</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -12524,17 +12524,17 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>51.7</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>51.7</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>-3.1</t>
         </is>
       </c>
     </row>
@@ -13584,42 +13584,42 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Delon Wright</t>
+          <t>Davis Bertans</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
           <t>75</t>
         </is>
       </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>70.8%</t>
+          <t>63.7%</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -13629,17 +13629,17 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>-0.2</t>
         </is>
       </c>
     </row>
@@ -13649,42 +13649,42 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Davis Bertans</t>
+          <t>Delon Wright</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>75</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>63.7%</t>
+          <t>70.8%</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -13694,17 +13694,17 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>-0.2</t>
+          <t>2.2</t>
         </is>
       </c>
     </row>
@@ -14559,17 +14559,17 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Bruce Brown</t>
+          <t>T.J. McConnell</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -14589,12 +14589,12 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>68.0%</t>
+          <t>72.2%</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -14604,17 +14604,17 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>46.6</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>-4.4</t>
+          <t>1.5</t>
         </is>
       </c>
     </row>
@@ -14624,17 +14624,17 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>T.J. McConnell</t>
+          <t>Bruce Brown</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -14654,12 +14654,12 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>72.2%</t>
+          <t>68.0%</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -14669,17 +14669,17 @@
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>46.6</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>-4.4</t>
         </is>
       </c>
     </row>
@@ -14689,12 +14689,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Cheick Diallo</t>
+          <t>Landry Shamet</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -14704,27 +14704,27 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>76</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>78.9%</t>
+          <t>69.4%</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -14734,17 +14734,17 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>3.4</t>
         </is>
       </c>
     </row>
@@ -14754,12 +14754,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Landry Shamet</t>
+          <t>Cheick Diallo</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -14769,27 +14769,27 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>64</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>60</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>69.4%</t>
+          <t>78.9%</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -14799,17 +14799,17 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-2.0</t>
         </is>
       </c>
     </row>
@@ -15274,42 +15274,42 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Khem Birch</t>
+          <t>Jared Dudley</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>59</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>56</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>80.6%</t>
+          <t>68.0%</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -15319,17 +15319,17 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>-4.6</t>
         </is>
       </c>
     </row>
@@ -15339,42 +15339,42 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Jared Dudley</t>
+          <t>Khem Birch</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>49</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>68.0%</t>
+          <t>80.6%</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -15384,17 +15384,17 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>47.6</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>-4.6</t>
+          <t>-2.7</t>
         </is>
       </c>
     </row>
@@ -15924,22 +15924,22 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Mario Hezonja</t>
+          <t>Tyler Johnson</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -15949,12 +15949,12 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>56</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>63.9%</t>
+          <t>58.2%</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -15969,17 +15969,17 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>53.4</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>2.9</t>
         </is>
       </c>
     </row>
@@ -15989,17 +15989,17 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>DeMarre Carroll</t>
+          <t>Mario Hezonja</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -16009,22 +16009,22 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>65.0%</t>
+          <t>63.9%</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -16034,17 +16034,17 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>-2.7</t>
+          <t>0.7</t>
         </is>
       </c>
     </row>
@@ -16054,42 +16054,42 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Tyler Johnson</t>
+          <t>DeMarre Carroll</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>67</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>67</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>58.2%</t>
+          <t>65.0%</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -16099,17 +16099,17 @@
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>53.4</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>-2.7</t>
         </is>
       </c>
     </row>
@@ -16119,17 +16119,17 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Jeremy Lin</t>
+          <t>Jalen Brunson</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -16139,22 +16139,22 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>68</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>67</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>67.5%</t>
+          <t>63.7%</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -16164,17 +16164,17 @@
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>53.5</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>5.3</t>
         </is>
       </c>
     </row>
@@ -16184,17 +16184,17 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Jalen Brunson</t>
+          <t>Jeremy Lin</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -16204,22 +16204,22 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>74</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>73</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>63.7%</t>
+          <t>67.5%</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -16229,17 +16229,17 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>53.5</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>3.7</t>
         </is>
       </c>
     </row>
@@ -16249,37 +16249,37 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Damyean Dotson</t>
+          <t>Cristiano Felicio</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>57</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>63.6%</t>
+          <t>73.4%</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -16294,17 +16294,17 @@
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>56.4</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.4</t>
         </is>
       </c>
     </row>
@@ -16314,37 +16314,37 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Cristiano Felicio</t>
+          <t>Damyean Dotson</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>72</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>72</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>73.4%</t>
+          <t>63.6%</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -16359,17 +16359,17 @@
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>3.9</t>
         </is>
       </c>
     </row>
@@ -16509,42 +16509,42 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Johnathan Williams</t>
+          <t>Wayne Ellington</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>70.0%</t>
+          <t>66.0%</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -16554,17 +16554,17 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>-3.6</t>
+          <t>-0.3</t>
         </is>
       </c>
     </row>
@@ -16574,42 +16574,42 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Wayne Ellington</t>
+          <t>Johnathan Williams</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>66.0%</t>
+          <t>70.0%</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -16619,17 +16619,17 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>-3.6</t>
         </is>
       </c>
     </row>
@@ -16769,17 +16769,17 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Kentavious Caldwell-Pope</t>
+          <t>Frank Ntilikina</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -16789,22 +16789,22 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>42</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>61.4%</t>
+          <t>69.9%</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>3.1</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -16814,17 +16814,17 @@
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>57.5</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>51.3</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>6.2</t>
+          <t>-1.1</t>
         </is>
       </c>
     </row>
@@ -16834,17 +16834,17 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Frank Ntilikina</t>
+          <t>Kentavious Caldwell-Pope</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -16854,22 +16854,22 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>82</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>82</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>69.9%</t>
+          <t>61.4%</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>3.1</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -16879,17 +16879,17 @@
       </c>
       <c r="K254" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>57.5</t>
         </is>
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>-1.1</t>
+          <t>6.2</t>
         </is>
       </c>
     </row>
@@ -16964,17 +16964,17 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Zhaire Smith</t>
+          <t>E'Twaun Moore</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -16984,22 +16984,22 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>69.2%</t>
+          <t>67.8%</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -17009,17 +17009,17 @@
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>55.9</t>
         </is>
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>49.3</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>-4.9</t>
+          <t>4.9</t>
         </is>
       </c>
     </row>
@@ -17029,17 +17029,17 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>E'Twaun Moore</t>
+          <t>Zhaire Smith</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -17049,22 +17049,22 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>67.8%</t>
+          <t>69.2%</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -17074,17 +17074,17 @@
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>55.9</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>49.3</t>
         </is>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>-4.9</t>
         </is>
       </c>
     </row>
@@ -17484,42 +17484,42 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Royce O'Neale</t>
+          <t>Shaquille Harrison</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>71</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>69</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>68.3%</t>
+          <t>61.8%</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -17529,7 +17529,7 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
@@ -17539,7 +17539,7 @@
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -17549,42 +17549,42 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Shaquille Harrison</t>
+          <t>Royce O'Neale</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>80</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>79</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>61.8%</t>
+          <t>68.3%</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -17594,7 +17594,7 @@
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>50.7</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
@@ -17604,7 +17604,7 @@
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>2.1</t>
         </is>
       </c>
     </row>
@@ -18329,42 +18329,42 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Derrick Jones Jr.</t>
+          <t>Darren Collison</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>76</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>60.1%</t>
+          <t>58.2%</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -18374,17 +18374,17 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>53.9</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>51.9</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>-7.9</t>
+          <t>3.3</t>
         </is>
       </c>
     </row>
@@ -18394,42 +18394,42 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Alec Burks</t>
+          <t>Derrick Jones Jr.</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>60.1%</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>2.9</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -18439,17 +18439,17 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>57.5</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>52.1</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>-7.9</t>
         </is>
       </c>
     </row>
@@ -18459,17 +18459,17 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Darren Collison</t>
+          <t>Alec Burks</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -18479,22 +18479,22 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>63</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>59</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>58.2%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>2.9</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -18504,17 +18504,17 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>53.9</t>
+          <t>57.5</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>52.1</t>
         </is>
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>5.3</t>
         </is>
       </c>
     </row>
@@ -19109,22 +19109,22 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Andre Iguodala</t>
+          <t>Tyus Jones</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -19134,17 +19134,17 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>62</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>62.7%</t>
+          <t>65.6%</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -19154,17 +19154,17 @@
       </c>
       <c r="K289" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="M289" t="inlineStr">
         <is>
-          <t>-2.4</t>
+          <t>1.9</t>
         </is>
       </c>
     </row>
@@ -19174,22 +19174,22 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Tyus Jones</t>
+          <t>Andre Iguodala</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -19199,17 +19199,17 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>67</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>65.6%</t>
+          <t>62.7%</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -19219,17 +19219,17 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>-2.4</t>
         </is>
       </c>
     </row>
@@ -20084,42 +20084,42 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Harry Giles III</t>
+          <t>Torrey Craig</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>72</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>69</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>70.7%</t>
+          <t>59.8%</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -20129,17 +20129,17 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>51.3</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>53.2</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>-1.9</t>
+          <t>-0.3</t>
         </is>
       </c>
     </row>
@@ -20149,42 +20149,42 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Torrey Craig</t>
+          <t>Harry Giles III</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>59.8%</t>
+          <t>70.7%</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -20194,17 +20194,17 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>53.2</t>
         </is>
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>-1.9</t>
         </is>
       </c>
     </row>
@@ -20669,12 +20669,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Robert Williams III</t>
+          <t>Omari Spellman</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -20684,27 +20684,27 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>43</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>75.1%</t>
+          <t>51.5%</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -20714,17 +20714,17 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>44.6</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>-3.9</t>
         </is>
       </c>
     </row>
@@ -20734,12 +20734,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Omari Spellman</t>
+          <t>Robert Williams III</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -20749,27 +20749,27 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>26</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>51.5%</t>
+          <t>75.1%</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -20779,17 +20779,17 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>48.5</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t>-3.9</t>
+          <t>-8.0</t>
         </is>
       </c>
     </row>
@@ -22814,42 +22814,42 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Frank Jackson</t>
+          <t>Sam Dekker</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>42</t>
         </is>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>65.2%</t>
+          <t>62.4%</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
@@ -22859,17 +22859,17 @@
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>55.1</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>51.3</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>5.3</t>
         </is>
       </c>
     </row>
@@ -22879,42 +22879,42 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Gary Clark</t>
+          <t>Frank Jackson</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>57</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>75.5%</t>
+          <t>65.2%</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
@@ -22924,17 +22924,17 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>58.9</t>
+          <t>55.1</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>3.8</t>
         </is>
       </c>
     </row>
@@ -22944,17 +22944,17 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Sam Dekker</t>
+          <t>Gary Clark</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -22964,17 +22964,17 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
           <t>44</t>
         </is>
       </c>
-      <c r="G348" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>62.4%</t>
+          <t>75.5%</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -22989,17 +22989,17 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>58.0</t>
+          <t>58.9</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>7.5</t>
         </is>
       </c>
     </row>
@@ -23139,42 +23139,42 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Cameron Payne</t>
+          <t>Jason Smith</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>61.7%</t>
+          <t>62.4%</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
@@ -23184,17 +23184,17 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>62.7</t>
+          <t>53.4</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="M351" t="inlineStr">
         <is>
-          <t>11.6</t>
+          <t>1.6</t>
         </is>
       </c>
     </row>
@@ -23204,42 +23204,42 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Jason Smith</t>
+          <t>Cameron Payne</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>35</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>62.4%</t>
+          <t>61.7%</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
@@ -23249,17 +23249,17 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>53.4</t>
+          <t>62.7</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>51.9</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>11.6</t>
         </is>
       </c>
     </row>
@@ -23269,42 +23269,42 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Patrick Patterson</t>
+          <t>Dwayne Bacon</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>CHA</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>37</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>65.9%</t>
+          <t>60.9%</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
@@ -23314,17 +23314,17 @@
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>53.7</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>52.8</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="M353" t="inlineStr">
         <is>
-          <t>-3.8</t>
+          <t>2.3</t>
         </is>
       </c>
     </row>
@@ -23334,42 +23334,42 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Dwayne Bacon</t>
+          <t>Patrick Patterson</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>CHA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>57</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>60.9%</t>
+          <t>65.9%</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -23379,17 +23379,17 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>53.7</t>
+          <t>49.0</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>52.8</t>
         </is>
       </c>
       <c r="M354" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>-3.8</t>
         </is>
       </c>
     </row>
@@ -23464,12 +23464,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Justin Patton</t>
+          <t>Emanuel Terry</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -23479,17 +23479,17 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
@@ -23514,12 +23514,12 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>59.1</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>23.4</t>
         </is>
       </c>
     </row>
@@ -23529,12 +23529,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Emanuel Terry</t>
+          <t>Justin Patton</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -23544,17 +23544,17 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
@@ -23579,12 +23579,12 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>59.1</t>
         </is>
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t>23.4</t>
+          <t>16.0</t>
         </is>
       </c>
     </row>
@@ -23594,42 +23594,42 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Raul Neto</t>
+          <t>JR Smith</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>71.8%</t>
+          <t>57.1%</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -23639,17 +23639,17 @@
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>-0.3</t>
+          <t>24.6</t>
         </is>
       </c>
     </row>
@@ -23659,42 +23659,42 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>JR Smith</t>
+          <t>Jordan McRae</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>57.1%</t>
+          <t>63.6%</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
@@ -23704,17 +23704,17 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>53.6</t>
         </is>
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="M359" t="inlineStr">
         <is>
-          <t>24.6</t>
+          <t>1.7</t>
         </is>
       </c>
     </row>
@@ -23724,17 +23724,17 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Jordan McRae</t>
+          <t>Raul Neto</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -23744,22 +23744,22 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>34</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>63.6%</t>
+          <t>71.8%</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
@@ -23769,17 +23769,17 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>53.6</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>51.9</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>-0.3</t>
         </is>
       </c>
     </row>
@@ -24374,32 +24374,32 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Isaac Humphries</t>
+          <t>Dante Exum</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>38</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
@@ -24409,7 +24409,7 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -24419,17 +24419,17 @@
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>45.4</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>49.7</t>
         </is>
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>-4.4</t>
         </is>
       </c>
     </row>
@@ -24439,32 +24439,32 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Dante Exum</t>
+          <t>Isaac Humphries</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
@@ -24474,7 +24474,7 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -24484,17 +24484,17 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>45.4</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>49.7</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>-4.4</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -25154,12 +25154,12 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Doug McDermott</t>
+          <t>Eric Moreland</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -25169,27 +25169,27 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>63.2%</t>
+          <t>72.0%</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
@@ -25199,17 +25199,17 @@
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="L382" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="M382" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>6.7</t>
         </is>
       </c>
     </row>
@@ -25219,12 +25219,12 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Eric Moreland</t>
+          <t>Doug McDermott</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -25234,27 +25234,27 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>77</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>71</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>72.0%</t>
+          <t>63.2%</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
@@ -25264,17 +25264,17 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="L383" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="M383" t="inlineStr">
         <is>
-          <t>6.7</t>
+          <t>1.5</t>
         </is>
       </c>
     </row>
@@ -25479,42 +25479,42 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Isaiah Briscoe</t>
+          <t>Dante Cunningham</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>59</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>51</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>59.6%</t>
+          <t>58.2%</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
@@ -25524,17 +25524,17 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>51.7</t>
+          <t>54.6</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>50.7</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.7</t>
         </is>
       </c>
     </row>
@@ -25544,42 +25544,42 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Dante Cunningham</t>
+          <t>Isaiah Briscoe</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
           <t>32</t>
         </is>
       </c>
-      <c r="E388" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F388" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="G388" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>58.2%</t>
+          <t>59.6%</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
@@ -25589,17 +25589,17 @@
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>54.6</t>
+          <t>51.7</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -26064,42 +26064,42 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Dairis Bertans</t>
+          <t>P.J. Dozier</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>61.5%</t>
+          <t>71.4%</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -26109,17 +26109,17 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>55.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>48.1</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="M396" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>34.4</t>
         </is>
       </c>
     </row>
@@ -26194,42 +26194,42 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>P.J. Dozier</t>
+          <t>Dairis Bertans</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>71.4%</t>
+          <t>61.5%</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -26239,17 +26239,17 @@
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>55.0</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>48.1</t>
         </is>
       </c>
       <c r="M398" t="inlineStr">
         <is>
-          <t>34.4</t>
+          <t>6.9</t>
         </is>
       </c>
     </row>
@@ -26909,42 +26909,42 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Furkan Korkmaz</t>
+          <t>Deng Adel</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>62.2%</t>
+          <t>62.0%</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -26954,17 +26954,17 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>46.4</t>
+          <t>54.5</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>51.4</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="M409" t="inlineStr">
         <is>
-          <t>-5.1</t>
+          <t>3.6</t>
         </is>
       </c>
     </row>
@@ -26974,42 +26974,42 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Deng Adel</t>
+          <t>Furkan Korkmaz</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>44</t>
         </is>
       </c>
       <c r="G410" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>41</t>
         </is>
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>62.0%</t>
+          <t>62.2%</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -27019,17 +27019,17 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>46.4</t>
         </is>
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>51.4</t>
         </is>
       </c>
       <c r="M410" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>-5.1</t>
         </is>
       </c>
     </row>
@@ -27169,42 +27169,42 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Timothe Luwawu-Cabarrot</t>
+          <t>Troy Daniels</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>49</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>61.4%</t>
+          <t>63.1%</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -27214,17 +27214,17 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>48.4</t>
+          <t>53.9</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
         <is>
-          <t>49.9</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="M413" t="inlineStr">
         <is>
-          <t>-1.5</t>
+          <t>2.4</t>
         </is>
       </c>
     </row>
@@ -27234,42 +27234,42 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Troy Daniels</t>
+          <t>Timothe Luwawu-Cabarrot</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>36</t>
         </is>
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>63.1%</t>
+          <t>61.4%</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -27279,17 +27279,17 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>53.9</t>
+          <t>48.4</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
         <is>
-          <t>51.6</t>
+          <t>49.9</t>
         </is>
       </c>
       <c r="M414" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>-1.5</t>
         </is>
       </c>
     </row>
@@ -27494,17 +27494,17 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Devin Harris</t>
+          <t>Jamal Crawford</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -27514,22 +27514,22 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>59</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>56</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>65.5%</t>
+          <t>65.3%</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -27539,17 +27539,17 @@
       </c>
       <c r="K418" t="inlineStr">
         <is>
-          <t>53.2</t>
+          <t>63.1</t>
         </is>
       </c>
       <c r="L418" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="M418" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>11.9</t>
         </is>
       </c>
     </row>
@@ -27559,17 +27559,17 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Jamal Crawford</t>
+          <t>Devin Harris</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
@@ -27579,22 +27579,22 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>62</t>
         </is>
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>54</t>
         </is>
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>65.3%</t>
+          <t>65.5%</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -27604,17 +27604,17 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>63.1</t>
+          <t>53.2</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="M419" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>2.4</t>
         </is>
       </c>
     </row>
@@ -27624,62 +27624,62 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Omri Casspi</t>
+          <t>Brandon Sampson</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>60.3%</t>
+          <t>62.9%</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="J420" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>51.3</t>
+        </is>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="M420" t="inlineStr">
+        <is>
           <t>1.3</t>
-        </is>
-      </c>
-      <c r="J420" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>43.8</t>
-        </is>
-      </c>
-      <c r="L420" t="inlineStr">
-        <is>
-          <t>52.3</t>
-        </is>
-      </c>
-      <c r="M420" t="inlineStr">
-        <is>
-          <t>-8.5</t>
         </is>
       </c>
     </row>
@@ -27754,17 +27754,17 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Luc Mbah a Moute</t>
+          <t>Duncan Robinson</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
@@ -27774,22 +27774,22 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>52.2%</t>
+          <t>55.9%</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -27799,17 +27799,17 @@
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>53.0</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="M422" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>1.3</t>
         </is>
       </c>
     </row>
@@ -27949,17 +27949,17 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Duncan Robinson</t>
+          <t>Omri Casspi</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
@@ -27969,22 +27969,22 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>55.9%</t>
+          <t>60.3%</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -27994,17 +27994,17 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="M425" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>-8.5</t>
         </is>
       </c>
     </row>
@@ -28014,37 +28014,37 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Brandon Sampson</t>
+          <t>Luc Mbah a Moute</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>62.9%</t>
+          <t>52.2%</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -28059,17 +28059,17 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>51.3</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>53.0</t>
         </is>
       </c>
       <c r="M426" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>-3.0</t>
         </is>
       </c>
     </row>
@@ -28404,37 +28404,37 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Jevon Carter</t>
+          <t>Chris Boucher</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>28</t>
         </is>
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>54.5%</t>
+          <t>73.4%</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
@@ -28449,17 +28449,17 @@
       </c>
       <c r="K432" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="L432" t="inlineStr">
         <is>
-          <t>49.5</t>
+          <t>51.8</t>
         </is>
       </c>
       <c r="M432" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-3.0</t>
         </is>
       </c>
     </row>
@@ -28469,37 +28469,37 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Chris Boucher</t>
+          <t>Jevon Carter</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>31</t>
         </is>
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>73.4%</t>
+          <t>54.5%</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
@@ -28514,17 +28514,17 @@
       </c>
       <c r="K433" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>49.5</t>
         </is>
       </c>
       <c r="M433" t="inlineStr">
         <is>
-          <t>-3.0</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -28534,17 +28534,17 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Frank Mason III</t>
+          <t>Lance Stephenson</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
@@ -28554,22 +28554,22 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>65</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>55</t>
         </is>
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>62.6%</t>
+          <t>55.6%</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -28579,17 +28579,17 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>53.6</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
         <is>
-          <t>50.4</t>
+          <t>51.1</t>
         </is>
       </c>
       <c r="M434" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>5.7</t>
         </is>
       </c>
     </row>
@@ -28599,17 +28599,17 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Lance Stephenson</t>
+          <t>Frank Mason III</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
@@ -28619,22 +28619,22 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G435" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>33</t>
         </is>
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>55.6%</t>
+          <t>62.6%</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -28644,17 +28644,17 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>53.6</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>51.1</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="M435" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>3.2</t>
         </is>
       </c>
     </row>
@@ -28794,37 +28794,37 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>T.J. Leaf</t>
+          <t>CJ Miles</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>47</t>
         </is>
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>66.2%</t>
+          <t>64.1%</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
@@ -28839,17 +28839,17 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>41.4</t>
+          <t>42.7</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="M438" t="inlineStr">
         <is>
-          <t>-9.8</t>
+          <t>-9.6</t>
         </is>
       </c>
     </row>
@@ -28859,37 +28859,37 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>CJ Miles</t>
+          <t>T.J. Leaf</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>53</t>
         </is>
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>64.1%</t>
+          <t>66.2%</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -28904,17 +28904,17 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>42.7</t>
+          <t>41.4</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="M439" t="inlineStr">
         <is>
-          <t>-9.6</t>
+          <t>-9.8</t>
         </is>
       </c>
     </row>
@@ -28989,37 +28989,37 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Deonte Burton</t>
+          <t>Guerschon Yabusele</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>37</t>
         </is>
       </c>
       <c r="G441" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>32</t>
         </is>
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>63.0%</t>
+          <t>76.1%</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -29034,17 +29034,17 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>43.1</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>50.9</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="M441" t="inlineStr">
         <is>
-          <t>-7.8</t>
+          <t>-5.2</t>
         </is>
       </c>
     </row>
@@ -29054,17 +29054,17 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Jacob Evans</t>
+          <t>Deonte Burton</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
@@ -29079,17 +29079,17 @@
       </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>69.9%</t>
+          <t>63.0%</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
@@ -29099,17 +29099,17 @@
       </c>
       <c r="K442" t="inlineStr">
         <is>
-          <t>48.3</t>
+          <t>43.1</t>
         </is>
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>50.7</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="M442" t="inlineStr">
         <is>
-          <t>-2.4</t>
+          <t>-7.8</t>
         </is>
       </c>
     </row>
@@ -29119,42 +29119,42 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Guerschon Yabusele</t>
+          <t>Jacob Evans</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>76.1%</t>
+          <t>69.9%</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
@@ -29164,17 +29164,17 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>48.3</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="M443" t="inlineStr">
         <is>
-          <t>-5.2</t>
+          <t>-2.4</t>
         </is>
       </c>
     </row>
@@ -29184,42 +29184,42 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Theo Pinson</t>
+          <t>Antonio Blakeney</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G444" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>44</t>
         </is>
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>61.8%</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
@@ -29229,17 +29229,17 @@
       </c>
       <c r="K444" t="inlineStr">
         <is>
-          <t>41.5</t>
+          <t>60.4</t>
         </is>
       </c>
       <c r="L444" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="M444" t="inlineStr">
         <is>
-          <t>-8.6</t>
+          <t>9.7</t>
         </is>
       </c>
     </row>
@@ -29249,42 +29249,42 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Antonio Blakeney</t>
+          <t>Theo Pinson</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>61.8%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
@@ -29294,17 +29294,17 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>60.4</t>
+          <t>41.5</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="M445" t="inlineStr">
         <is>
-          <t>9.7</t>
+          <t>-8.6</t>
         </is>
       </c>
     </row>
@@ -29509,17 +29509,17 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Ben McLemore</t>
+          <t>Gary Trent Jr.</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
@@ -29529,17 +29529,17 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>75.5%</t>
+          <t>62.7%</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
@@ -29554,17 +29554,17 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>57.5</t>
+          <t>56.3</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="M449" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>7.4</t>
         </is>
       </c>
     </row>
@@ -29574,17 +29574,17 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Gary Trent Jr.</t>
+          <t>Ben McLemore</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
@@ -29594,17 +29594,17 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>62.7%</t>
+          <t>75.5%</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
@@ -29619,17 +29619,17 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>56.3</t>
+          <t>57.5</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>52.2</t>
         </is>
       </c>
       <c r="M450" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>5.3</t>
         </is>
       </c>
     </row>
@@ -29964,17 +29964,17 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Svi Mykhailiuk</t>
+          <t>Edmond Sumner</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -29984,22 +29984,22 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G456" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>57.6%</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -30009,17 +30009,17 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>48.5</t>
+          <t>61.2</t>
         </is>
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="M456" t="inlineStr">
         <is>
-          <t>-1.8</t>
+          <t>10.3</t>
         </is>
       </c>
     </row>
@@ -30094,17 +30094,17 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Edmond Sumner</t>
+          <t>Svi Mykhailiuk</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
@@ -30114,22 +30114,22 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>33</t>
         </is>
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>57.6%</t>
+          <t>62.8%</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
@@ -30139,17 +30139,17 @@
       </c>
       <c r="K458" t="inlineStr">
         <is>
-          <t>61.2</t>
+          <t>48.5</t>
         </is>
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>51.0</t>
+          <t>50.3</t>
         </is>
       </c>
       <c r="M458" t="inlineStr">
         <is>
-          <t>10.3</t>
+          <t>-1.8</t>
         </is>
       </c>
     </row>
@@ -30484,12 +30484,12 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Johnathan Motley</t>
+          <t>Billy Garrett</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -30499,27 +30499,27 @@
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>71.4%</t>
+          <t>43.5%</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
@@ -30529,17 +30529,17 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>80.0</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
         <is>
-          <t>52.4</t>
+          <t>50.2</t>
         </is>
       </c>
       <c r="M464" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>29.8</t>
         </is>
       </c>
     </row>
@@ -30549,12 +30549,12 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Billy Garrett</t>
+          <t>Johnathan Motley</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -30564,27 +30564,27 @@
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>43.5%</t>
+          <t>71.4%</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
@@ -30594,17 +30594,17 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
         <is>
-          <t>50.2</t>
+          <t>52.4</t>
         </is>
       </c>
       <c r="M465" t="inlineStr">
         <is>
-          <t>29.8</t>
+          <t>12.1</t>
         </is>
       </c>
     </row>
@@ -31004,42 +31004,42 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Nick Young</t>
+          <t>Jimmer Fredette</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>70.0%</t>
+          <t>63.6%</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
@@ -31049,17 +31049,17 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>64.3</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="M472" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>13.7</t>
         </is>
       </c>
     </row>
@@ -31069,42 +31069,42 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Jimmer Fredette</t>
+          <t>Nick Young</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G473" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>63.6%</t>
+          <t>70.0%</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
@@ -31114,17 +31114,17 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>64.3</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>50.6</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="M473" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>10.0</t>
         </is>
       </c>
     </row>
@@ -31199,7 +31199,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Demetrius Jackson</t>
+          <t>Haywood Highsmith</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -31209,12 +31209,12 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F475" t="inlineStr">
@@ -31224,7 +31224,7 @@
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H475" t="inlineStr">
@@ -31234,7 +31234,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
@@ -31244,17 +31244,17 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>22.2</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>44.5</t>
         </is>
       </c>
       <c r="M475" t="inlineStr">
         <is>
-          <t>-22.7</t>
+          <t>-0.1</t>
         </is>
       </c>
     </row>
@@ -31264,7 +31264,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Haywood Highsmith</t>
+          <t>Demetrius Jackson</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -31274,12 +31274,12 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F476" t="inlineStr">
@@ -31289,7 +31289,7 @@
       </c>
       <c r="G476" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H476" t="inlineStr">
@@ -31299,7 +31299,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J476" t="inlineStr">
@@ -31309,17 +31309,17 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>22.2</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
         <is>
-          <t>44.5</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="M476" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>-22.7</t>
         </is>
       </c>
     </row>
@@ -31524,17 +31524,17 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Lonnie Walker IV</t>
+          <t>John Jenkins</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
@@ -31544,22 +31544,22 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G480" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>69.2%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -31569,17 +31569,17 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>51.9</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="L480" t="inlineStr">
         <is>
-          <t>52.0</t>
+          <t>50.5</t>
         </is>
       </c>
       <c r="M480" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>5.1</t>
         </is>
       </c>
     </row>
@@ -31589,17 +31589,17 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>John Jenkins</t>
+          <t>Lonnie Walker IV</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
@@ -31609,22 +31609,22 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>69.2%</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -31634,17 +31634,17 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="M481" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>-0.1</t>
         </is>
       </c>
     </row>
@@ -31719,12 +31719,12 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Trevon Duval</t>
+          <t>Ike Anigbogu</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -31734,7 +31734,7 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
@@ -31754,7 +31754,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
@@ -31764,17 +31764,17 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L483" t="inlineStr">
         <is>
-          <t>44.8</t>
+          <t>62.6</t>
         </is>
       </c>
       <c r="M483" t="inlineStr">
         <is>
-          <t>5.2</t>
+          <t>37.4</t>
         </is>
       </c>
     </row>
@@ -31784,62 +31784,62 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>George King</t>
+          <t>Trevon Duval</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I484" t="inlineStr">
         <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="J484" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
         <is>
-          <t>47.7</t>
+          <t>44.8</t>
         </is>
       </c>
       <c r="M484" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>5.2</t>
         </is>
       </c>
     </row>
@@ -31849,32 +31849,32 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Ike Anigbogu</t>
+          <t>Terrence Jones</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H485" t="inlineStr">
@@ -31884,27 +31884,27 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J485" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="J485" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
         <is>
-          <t>62.6</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="M485" t="inlineStr">
         <is>
-          <t>37.4</t>
+          <t>10.0</t>
         </is>
       </c>
     </row>
@@ -31914,17 +31914,17 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Terrence Jones</t>
+          <t>BJ Johnson</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
@@ -31934,22 +31934,22 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>70.0%</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
@@ -31959,17 +31959,17 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>64.3</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="M486" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>15.7</t>
         </is>
       </c>
     </row>
@@ -31979,17 +31979,17 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>BJ Johnson</t>
+          <t>George King</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
@@ -31999,22 +31999,22 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>70.0%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
@@ -32024,17 +32024,17 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>64.3</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>47.7</t>
         </is>
       </c>
       <c r="M487" t="inlineStr">
         <is>
-          <t>15.7</t>
+          <t>52.3</t>
         </is>
       </c>
     </row>
@@ -32954,32 +32954,32 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Dzanan Musa</t>
+          <t>Scott Machado</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G502" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H502" t="inlineStr">
@@ -32989,7 +32989,7 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J502" t="inlineStr">
@@ -32999,17 +32999,17 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>45.7</t>
         </is>
       </c>
       <c r="M502" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>-45.7</t>
         </is>
       </c>
     </row>
@@ -33019,32 +33019,32 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Scott Machado</t>
+          <t>Dzanan Musa</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G503" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H503" t="inlineStr">
@@ -33054,7 +33054,7 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
@@ -33064,17 +33064,17 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
         <is>
-          <t>45.7</t>
+          <t>46.7</t>
         </is>
       </c>
       <c r="M503" t="inlineStr">
         <is>
-          <t>-45.7</t>
+          <t>3.3</t>
         </is>
       </c>
     </row>
@@ -33669,27 +33669,27 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Kostas Antetokounmpo</t>
+          <t>DJ Stephens</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G513" t="inlineStr">
@@ -33719,12 +33719,12 @@
       </c>
       <c r="L513" t="inlineStr">
         <is>
-          <t>49.2</t>
+          <t>63.4</t>
         </is>
       </c>
       <c r="M513" t="inlineStr">
         <is>
-          <t>-49.2</t>
+          <t>-63.4</t>
         </is>
       </c>
     </row>
@@ -33734,42 +33734,42 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Vincent Edwards</t>
+          <t>Andre Ingram</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G514" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H514" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>75.0%</t>
         </is>
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J514" t="inlineStr">
@@ -33779,17 +33779,17 @@
       </c>
       <c r="K514" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L514" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="M514" t="inlineStr">
         <is>
-          <t>-45.2</t>
+          <t>-15.5</t>
         </is>
       </c>
     </row>
@@ -33799,22 +33799,22 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Tahjere McCall</t>
+          <t>Tyler Davis</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F515" t="inlineStr">
@@ -33849,12 +33849,12 @@
       </c>
       <c r="L515" t="inlineStr">
         <is>
-          <t>55.1</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="M515" t="inlineStr">
         <is>
-          <t>-55.1</t>
+          <t>-55.3</t>
         </is>
       </c>
     </row>
@@ -33864,22 +33864,22 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Tyler Davis</t>
+          <t>Tahjere McCall</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F516" t="inlineStr">
@@ -33914,12 +33914,12 @@
       </c>
       <c r="L516" t="inlineStr">
         <is>
-          <t>55.3</t>
+          <t>55.1</t>
         </is>
       </c>
       <c r="M516" t="inlineStr">
         <is>
-          <t>-55.3</t>
+          <t>-55.1</t>
         </is>
       </c>
     </row>
@@ -33929,12 +33929,12 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Brandon Goodwin</t>
+          <t>Vincent Edwards</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
@@ -33944,27 +33944,27 @@
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G517" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>61.1%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J517" t="inlineStr">
@@ -33974,17 +33974,17 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>72.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
         <is>
-          <t>50.7</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="M517" t="inlineStr">
         <is>
-          <t>22.1</t>
+          <t>-45.2</t>
         </is>
       </c>
     </row>
@@ -33994,42 +33994,42 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>DJ Stephens</t>
+          <t>Brandon Goodwin</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G518" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H518" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>61.1%</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J518" t="inlineStr">
@@ -34039,17 +34039,17 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>72.7</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
         <is>
-          <t>63.4</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="M518" t="inlineStr">
         <is>
-          <t>-63.4</t>
+          <t>22.1</t>
         </is>
       </c>
     </row>
@@ -34059,42 +34059,42 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Andre Ingram</t>
+          <t>Kostas Antetokounmpo</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G519" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J519" t="inlineStr">
@@ -34104,17 +34104,17 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
         <is>
-          <t>48.8</t>
+          <t>49.2</t>
         </is>
       </c>
       <c r="M519" t="inlineStr">
         <is>
-          <t>-15.5</t>
+          <t>-49.2</t>
         </is>
       </c>
     </row>
@@ -34189,22 +34189,22 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Troy Caupain</t>
+          <t>Donatas Motiejunas</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F521" t="inlineStr">
@@ -34219,12 +34219,12 @@
       </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
@@ -34234,17 +34234,17 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="M521" t="inlineStr">
         <is>
-          <t>-42.5</t>
+          <t>12.0</t>
         </is>
       </c>
     </row>
@@ -34254,22 +34254,22 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Donatas Motiejunas</t>
+          <t>Troy Caupain</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F522" t="inlineStr">
@@ -34284,12 +34284,12 @@
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
@@ -34299,17 +34299,17 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="M522" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>-42.5</t>
         </is>
       </c>
     </row>
